--- a/biology/Botanique/Prorocentrum/Prorocentrum.xlsx
+++ b/biology/Botanique/Prorocentrum/Prorocentrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prorocentrum est un genre d’algues unicellulaires de la famille des Prorocentraceae dans la classe des Dinophyceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (1 janvier 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (1 janvier 2019) :
 Prorocentrum adriaticum J.Schiller
 Prorocentrum antarcticum (Hada) Balech (Sans vérification)
 Prorocentrum aporum (Schiller) Dodge
@@ -598,7 +612,7 @@
 Prorocentrum venetum Tolomio &amp; Cavolo
 Prorocentrum vietnamensis J.S.Yoo &amp; Fukuyo
 Prorocentrum viride Ehrenberg
-Selon ITIS      (1 janvier 2019)[3] :
+Selon ITIS      (1 janvier 2019) :
 Prorocentrum aporum
 Prorocentrum arcuatum
 Prorocentrum balticum
@@ -631,7 +645,7 @@
 Prorocentrum triangulatum
 Prorocentrum triestinum Schiller, 1918
 Prorocentrum vaginulum
-Selon NCBI  (1 janvier 2019)[4] :
+Selon NCBI  (1 janvier 2019) :
 Prorocentrum arabianum
 Prorocentrum arenarium
 Prorocentrum balticum
@@ -681,7 +695,7 @@
 Prorocentrum texanum Henrichs, Steidinger, Scott &amp; Campbell 2013
 Prorocentrum triestinum
 Prorocentrum tsawwassenense
-Selon World Register of Marine Species                               (1 janvier 2019)[2] :
+Selon World Register of Marine Species                               (1 janvier 2019) :
 Prorocentrum adriaticum Schiller
 Prorocentrum antarcticum (Hada) Balech, 1975
 Prorocentrum aporum (Schiller) Dodge, 1975
